--- a/Amazon.xlsx
+++ b/Amazon.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39feda0732df7a79/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="14_{B5356ECD-59FD-439C-8945-696464B87EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98936C42-B4C3-4021-A68F-12758A2430D7}"/>
+  <xr:revisionPtr revIDLastSave="495" documentId="14_{B5356ECD-59FD-439C-8945-696464B87EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30A1E9AB-2F93-47A9-89BD-0172038FB1E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5620FFAC-42A4-455C-B693-4EC61EC44026}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="2" r:id="rId1"/>
+    <sheet name="Login" sheetId="3" r:id="rId2"/>
+    <sheet name="Product Display Page" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="239">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -312,12 +315,604 @@
     <t xml:space="preserve">1. Click on 'Sign in' button or put the cursor on sign in option and it is showing message 'New customer? Start here.' inside the box
 2. Click on 'Create your Amazon account' button </t>
   </si>
+  <si>
+    <t>TC_LF_001</t>
+  </si>
+  <si>
+    <t>(TS_002) 
+Login Functionality</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using valid credentials</t>
+  </si>
+  <si>
+    <t>Mobile No  - 0224995797
+                      Password -
+12345</t>
+  </si>
+  <si>
+    <t>1.User should be navigated to Login page
+2.User should get logged in and taken to the 'Home' page</t>
+  </si>
+  <si>
+    <t>TC_LF_002</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL (https://www.amazon.in/) in any supported Browser
+2. Login credentials for an existing account are required</t>
+  </si>
+  <si>
+    <t>Open the Application URL (https://www.amazon.in/) in any supported Browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address - fdsgfsdgfdsgdsgds@gmail.com
+</t>
+  </si>
+  <si>
+    <t>1. Warning message with the text 'We cannot find an account with that email address' should be displayed</t>
+  </si>
+  <si>
+    <t>TC_LF_003</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using invalid credentials (i.e. Invalid email address)</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using invalid credentials (i.e. Invalid mobile number)</t>
+  </si>
+  <si>
+    <t>Mobile number - 
+12131321123</t>
+  </si>
+  <si>
+    <t>1. Warning message with the text 'We cannot find an account with that mobile number' should be displayed</t>
+  </si>
+  <si>
+    <t>TC_LF_004</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using valid email address and invalid Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address - starpari.14@gmail.com
+Password -
+xyzabc123
+</t>
+  </si>
+  <si>
+    <t>1. Warning message with the text 'Your password is incorrect.' should be displayed</t>
+  </si>
+  <si>
+    <t>TC_LF_005</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using valid Mobile number and invalid Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile number - 0224995797
+Password -
+xyzabc123
+</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application without providing any credentials</t>
+  </si>
+  <si>
+    <t>TC_LF_006</t>
+  </si>
+  <si>
+    <t>1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box   
+2. Don't enter anything into the 'E-Mail Address' field
+3. Click on 'continue' button</t>
+  </si>
+  <si>
+    <t>1. Warning message with the text '
+Enter your email.' should be displayed</t>
+  </si>
+  <si>
+    <t>TC_LF_007</t>
+  </si>
+  <si>
+    <t>1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box   
+2. Don't enter anything into the 'Mobile number' field
+3. Click on 'continue' button</t>
+  </si>
+  <si>
+    <t>1. Warning message with the text '
+Enter your Mobile phone number.' should be displayed</t>
+  </si>
+  <si>
+    <t>TC_LF_008</t>
+  </si>
+  <si>
+    <t>Validate 'Forgot Password' link is available in the Login page and is working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box   
+2. Click on 'Need help?' option 
+3. Click on 'Forgot Password' link </t>
+  </si>
+  <si>
+    <t>1. User should be taken to 'Login' page and 'Forgot Password' link should be displayed in the page
+2. User should be taken to 'Forgot Password' page</t>
+  </si>
+  <si>
+    <t>TC_LF_009</t>
+  </si>
+  <si>
+    <t>Validate 'Other issues with sign-in' link is available in the Login page and is working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box   
+2. Click on 'Need help?' option 
+3. Click on 'Other issues with sign-in?' option </t>
+  </si>
+  <si>
+    <t>1. User should be taken to 'Login' page and 'Other issues with sign-in' link should be displayed in the page
+2. User should be taken to 'Other issues with sign-in' page</t>
+  </si>
+  <si>
+    <t>Validate logging into the Application using Keyboard keys (Tab and Enter)</t>
+  </si>
+  <si>
+    <t>1. User should be able to log into the application</t>
+  </si>
+  <si>
+    <t>TC_LF_010</t>
+  </si>
+  <si>
+    <t>1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box                              2. Press Tab keyboard key until the control comes to the E-Mail Address text field and enter the valid email address 
+3.Press Tab keyboard key to move the control to 'continue' button</t>
+  </si>
+  <si>
+    <t>TC_LF_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box  
+</t>
+  </si>
+  <si>
+    <t>1. Proper place holder text should be displayed inside the 'E-Mail'  text field</t>
+  </si>
+  <si>
+    <t>TC_LF_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate E-Mail text field in the Login page have the place holder text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Mobile number text field in the Login page have the place holder text </t>
+  </si>
+  <si>
+    <t>1. Proper place holder text should be displayed inside the 'Mobile number'  text field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Logging into the Application and browsing back using Browser back button </t>
+  </si>
+  <si>
+    <t>1. User should not logged out</t>
+  </si>
+  <si>
+    <t>TC_LF_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box  
+2. Enter valid email address into the 'E-Mail' field 
+3. Enter valid password into the 'Password' field
+4. Click on 'Continue' button 
+5. Click on Browser back button (ER-1)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address - starpari.14@gmail.com
+Password -
+12345
+</t>
+  </si>
+  <si>
+    <t>Validate the text into the Password field is toggled to hide its visibility</t>
+  </si>
+  <si>
+    <t>TC_LF_014</t>
+  </si>
+  <si>
+    <t>1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box  
+2. Enter valid email address into the 'E-Mail' field 
+3. Enter valid password into the 'Password' field</t>
+  </si>
+  <si>
+    <t>1.Text entered into the Password field should be toggled to hide its visibility (i.e. Instead of entered characters getting dispalyed, the Password field should show '.' Symbols)</t>
+  </si>
+  <si>
+    <t>Validate the copying of the text entered into the Password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Copy option in the Right click menu should be disabled
+2. Password text should not be copied
+</t>
+  </si>
+  <si>
+    <t>TC_LF_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box                                  2. Enter valid email address into the 'E-Mail' field 
+3. Enter any text into the 'Password' field
+4. Select the text entered into the 'Password' field, right click to select 'Copy' option 
+5. Select the text entered into the 'Password' field and press (Ctrl+C) shorcut for copying </t>
+  </si>
+  <si>
+    <t>Validate the Password is not visible in the Page Source</t>
+  </si>
+  <si>
+    <t>1. Password text should not be visible in the Page source</t>
+  </si>
+  <si>
+    <t>TC_LF_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box                                  2. Enter valid email address into the 'E-Mail' field 
+3. Enter any text into the 'Password' field      4. Inspect the Password text field  
+</t>
+  </si>
+  <si>
+    <t>Validate Logging into the Application after changing the password</t>
+  </si>
+  <si>
+    <t>TC_LF_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box                                  2. Enter valid email address into the 'E-Mail' field 
+3. Enter valid password into the 'Password' field                                                        5. Click on 'Continue' button 
+6. Click on 'Sign in' button or put the cursor on sign in option and it is showing option 'Your Account'. inside the box                     7. Click on 'Your Account' option
+8. Click on 'Login &amp; Security' option in Your  Account Page
+9. Click on 'Edit Password' button
+10. Enter Current password into the 'Current password' field                                            11. Enter New password into the 'New password' field                                            12. Enter Reenter new password into the 'Reenter new password' field                         13. Click on 'Save changes' button                 14. Click on 'Sign in' button or put the cursor on sign in option and it is showing option 'Sign out'. inside the box                              15. Enter new credentials given in Step 1 and click on 'Continue' button                                  </t>
+  </si>
+  <si>
+    <t>1. User should get logged in and taken to the 'Home' page</t>
+  </si>
+  <si>
+    <t>TC_LF_018</t>
+  </si>
+  <si>
+    <t>TC_LF_019</t>
+  </si>
+  <si>
+    <t>TC_LF_020</t>
+  </si>
+  <si>
+    <t>TC_LF_021</t>
+  </si>
+  <si>
+    <t>Validate Logging into the Application, closing the Browser without signout and opening the application in the Browser again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box                               2. Enter invalid email address into the 'E-Mail' field 
+3. Click on 'continue' button
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box                               2. Enter valid Mobile number into the 'Mobile Number' field                                                           
+3. Enter invalid password into the 'Password' field                                                        4. Click on 'continue' button</t>
+  </si>
+  <si>
+    <t>1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box                               2. Enter valid email address into the 'E-Mail' field                                                           
+3. Enter invalid password into the 'Password' field                                                        4. Click on 'continue' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box                               2. Enter invalid Mobile number into the 'Mobile number' field 
+3. Click on 'continue' button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box
+2. Enter valid email address or mobile phone number into the 'Email or mobile phone number' field 
+3. Click on 'continue' button
+4. Enter valid password into the 'Password' field                                                          5. Click on 'Sign in' button  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box
+2. Enter valid email address or mobile phone number into the 'Email or mobile phone number' field 
+3. Click on 'continue' button
+4. Enter valid password into the 'Password' field                                                          5. Click on 'Sign in' button                          6. Close the Browser
+7. Open the Browser and open the Application URL 
+</t>
+  </si>
+  <si>
+    <t>1. Loggedin Sesion should be still maintained and User should not get sign out</t>
+  </si>
+  <si>
+    <t>Validate timeout of the Login Session</t>
+  </si>
+  <si>
+    <t>1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box
+2. Enter valid email address or mobile phone number into the 'Email or mobile phone number' field 
+3. Click on 'continue' button
+4. Enter valid password into the 'Password' field                                                          5. Click on 'Sign in' button                          6. Wait for more than 30 minutes without performing anything on the Application
+7. Perform any action on the Application</t>
+  </si>
+  <si>
+    <t>1. User should get automatically sign out with a proper message stating your session got expired.</t>
+  </si>
+  <si>
+    <t>TC_LF_022</t>
+  </si>
+  <si>
+    <t>Validate the UI of the Login page</t>
+  </si>
+  <si>
+    <t>1. Login page UI should adhere to the UI checklist</t>
+  </si>
+  <si>
+    <t>Validate the Login page functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>1. Login functionality should work correctly in all the supported environments</t>
+  </si>
+  <si>
+    <t>Validate the Page Heading, Page Title and Page URL of Login page</t>
+  </si>
+  <si>
+    <t>1. Click on 'Sign in' button or put the cursor on sign in option and it is showing button 'sign in'. inside the box</t>
+  </si>
+  <si>
+    <t>1. Proper Page Heading, Page URL and Page Title should be displayed</t>
+  </si>
+  <si>
+    <t>TC_PDP_001</t>
+  </si>
+  <si>
+    <t>(TS_003)
+Product Display Page</t>
+  </si>
+  <si>
+    <t>Product Name: vitamin b12</t>
+  </si>
+  <si>
+    <t>Validate the Thumbnails of the Products displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Click on the button having search icon
+</t>
+  </si>
+  <si>
+    <t>1. All searching related products to displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_002</t>
+  </si>
+  <si>
+    <t>Validate the Brand of the Products displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL (https://www.amazon.in/) in any supported Browser
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Choose any brand name options like (left column options)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name: vitamin b12     Brand Name :   Himalayan Organics      </t>
+  </si>
+  <si>
+    <t>1. Brands name related products to displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_003</t>
+  </si>
+  <si>
+    <t>1. Brands name and Price related products to displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_004</t>
+  </si>
+  <si>
+    <t>Validate the Discount of the Products displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>Validate the Price of the Products displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>Validate the Deals of the Products displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Choose any brand name options like (left column options)                          3. Enter Min and Max Price into the price options like (left column options)   4. Click on 'GO' Button                        5. Click on Discount Offers like (10% Off or more ,60% Off or more )                   6. Chosse Deals like (Today's Deals)
+</t>
+  </si>
+  <si>
+    <t>TC_PDP_005</t>
+  </si>
+  <si>
+    <t>TC_PDP_006</t>
+  </si>
+  <si>
+    <t>1. Brands name ,Price,Discount and Deals related products to displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Choose any brand name options like (left column options)                             3. Enter Min and Max Price into the price options like (left column options)                  4. Click on 'GO' Button       
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Choose any brand name options like (left column options)                              3. Enter Min and Max Price into the price options like (left column options)                  4. Click on 'GO' Button                        5. Click on Discount Offers like (10% Off or more ,60% Off or more )   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Choose any brand name options like (left column options)                             3. Enter Min and Max Price into the price options like (left column options)                   4. Click on 'GO' Button                        5. Click on Discount Offers like (10% Off or more ,60% Off or more )                                6. Choose Deals like (Today's Deals)                                 7. Choose Health Brands Options like (left column options)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name: vitamin b12       Brand Name :   Himalayan Organics      Price :                 Min - 1000         Max - 1500           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name: vitamin b12     Brand Name :   Himalayan Organics           Price :                 Min - 1000         Max - 1500       Discount : 10%          </t>
+  </si>
+  <si>
+    <t>TC_PDP_007</t>
+  </si>
+  <si>
+    <t>Validate the Diet Type of the Products displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Choose any brand name options like (left column options)                             3. Enter Min and Max Price into the price options like (left column options)                   4. Click on 'GO' Button                        5. Click on Discount Offers like (10% Off or more ,60% Off or more )                                6. Choose Deals like (Today's Deals)                                 7. Choose Health Brands Options like (left column options)                                8. Choose Diet Type Options like (left column options)
+</t>
+  </si>
+  <si>
+    <t>1. Brands name ,Price,Discount, Deals and Health Brand related products to displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_008</t>
+  </si>
+  <si>
+    <t>Validate the Age Range of the Products displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Choose any brand name options like (left column options)                             3. Enter Min and Max Price into the price options like (left column options)                   4. Click on 'GO' Button                        5. Click on Discount Offers like (10% Off or more ,60% Off or more )                                6. Choose Deals like (Today's Deals)                                 7. Choose Health Brands Options like (left column options)                                8. Choose Diet Type Options like (left column options)        9. Choose Age Range Options like (left column options)
+</t>
+  </si>
+  <si>
+    <t>1. Brands name,Price,Discount, Deals,Health Brand and Diet related products to displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Brands name,Price,Discount, Deals,Health Brand,Diet and Age Range related products to displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Brands name,Price,Discount related products to displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_019</t>
+  </si>
+  <si>
+    <t>TC_PDP_009</t>
+  </si>
+  <si>
+    <t>1. Light box view of the main Thumnail image should be displayed with options to view the Zoom images in Light box view.</t>
+  </si>
+  <si>
+    <t>TC_PDP_010</t>
+  </si>
+  <si>
+    <t>Validate all the filters of the Product displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_016</t>
+  </si>
+  <si>
+    <t>TC_PDP_011</t>
+  </si>
+  <si>
+    <t>Validate 'Add to Cart' button of Product Display Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Click on the button having search icon                             3. Click on all above filter options                         4.Click on any main bigger sized Thumbnail image displayed on the 'Product Display Page' 
+</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to 'Add to Cart Page'.</t>
+  </si>
+  <si>
+    <t>TC_PDP_012</t>
+  </si>
+  <si>
+    <t>Validate 'Add to Wish List' button of Product Display Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Click on the button having search icon                             3. Click on all above filter options                         4.Click on any main bigger sized Thumbnail image displayed on the 'Product Display Page'                       5. Click on the 'Add to Cart' button in the Product Display page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Click on the button having search icon                             3. Click on all above filter options                         4.Click on any main bigger sized Thumbnail image displayed on the 'Product Display Page'                       5. Click on the 'Add to Wish List' button in the Product Display page </t>
+  </si>
+  <si>
+    <t>1. User should be created shopping list'.</t>
+  </si>
+  <si>
+    <t>TC_PDP_013</t>
+  </si>
+  <si>
+    <t>Validate all the extra available options in the Product Display page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be able to select all the available options </t>
+  </si>
+  <si>
+    <t>TC_PDP_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Click on the button having search icon                             3. Click on all above filter options                               4. Click on any main bigger sized Thumbnail image displayed on the 'Product Display Page'                       5. Check all the 'Available Options' like (Pay on Delivery,Not Returnable,Amazon Delivered,No-Contact Delivery) in the displayed 'Product Display' page </t>
+  </si>
+  <si>
+    <t>TC_PDP_015</t>
+  </si>
+  <si>
+    <t>Validate all the specifications of the product  in the Product Display page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Click on the button having search icon                             3. Click on all above filter options                               4. Click on any main bigger sized Thumbnail image displayed on the 'Product Display Page'                       5. Check all the Specification and about the product in the displayed 'Product Display' page </t>
+  </si>
+  <si>
+    <t>1. User should be able to read all the details of the product.</t>
+  </si>
+  <si>
+    <t>Validate sold by  information of the product in the Product Display page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field 
+2. Click on the button having search icon                             3. Click on all above filter options                               4. Click on any main bigger sized Thumbnail image displayed on the 'Product Display Page'                       5. Click on 'Fulfilled by Amazon ' link.</t>
+  </si>
+  <si>
+    <t>1. User should be able to read about the items Fulfilled by Amazon of the product.</t>
+  </si>
+  <si>
+    <t>Validate Page Title, Page Heading and Page URL of the 'Product Display' page</t>
+  </si>
+  <si>
+    <t>TC_PDP_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Click on the button having search icon                             3. Click on all above filter options                               4. Click on any main bigger sized Thumbnail image displayed on the 'Product Display Page'                       5. Check the Page Title, Page Heading and Page URL of the displayed Product page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Proper Page Title, Page Heading and Page URL of the 'Product' page are displayed. </t>
+  </si>
+  <si>
+    <t>TC_PDP_018</t>
+  </si>
+  <si>
+    <t>Validate the UI of 'Product' page</t>
+  </si>
+  <si>
+    <t>Validate the 'search of Product Display' page functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter any existing Product name into the Search text box field 
+2. Click on the button having search icon                             3. Click on all above filter options                               4. Click on any main bigger sized Thumbnail image displayed on the 'Product Display Page'  </t>
+  </si>
+  <si>
+    <t>1. Proper UI adhering to the UI checklist should be displayed for the complete 'Product' page functionality</t>
+  </si>
+  <si>
+    <t>1. 'Product' page functionality should work correctly in all the supported environments</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,8 +946,33 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +988,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,11 +1063,895 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="160">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1006,8 +2516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A014FB6F-2F7C-442D-AF8F-0597AB242D9C}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1414,128 +2924,128 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J4">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="159" priority="37" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="158" priority="38" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="157" priority="39" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="156" priority="40" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="155" priority="33" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="154" priority="34" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="153" priority="35" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="36" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="152" priority="36" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="151" priority="29" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="150" priority="30" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="149" priority="31" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="32" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="148" priority="32" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="147" priority="25" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="146" priority="26" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="145" priority="27" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="144" priority="28" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="143" priority="21" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="142" priority="22" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="141" priority="23" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="140" priority="24" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="139" priority="17" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="138" priority="18" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="137" priority="19" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="136" priority="20" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="135" priority="13" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="134" priority="14" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="132" priority="16" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="131" priority="5" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="130" priority="6" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="129" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="128" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J12">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="127" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="126" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="125" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="124" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1547,4 +3057,1641 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EE35C7-5DFB-4113-AE8B-EC6812AA95BA}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" customWidth="1"/>
+    <col min="5" max="5" width="65" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="53" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" s="9" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" s="9" customFormat="1" ht="252" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" ht="234" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" s="9" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="containsText" dxfId="123" priority="81" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="82" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="83" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="84" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="containsText" dxfId="119" priority="77" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="78" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="79" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="80" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="115" priority="73" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="74" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="75" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="76" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="containsText" dxfId="107" priority="65" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="66" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="67" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="68" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="103" priority="61" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="62" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="63" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="64" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" dxfId="99" priority="57" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="58" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="59" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="60" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="95" priority="53" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="54" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="55" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="56" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="containsText" dxfId="91" priority="49" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="50" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="51" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="52" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="containsText" dxfId="87" priority="45" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="46" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="47" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="48" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" dxfId="83" priority="41" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="42" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="43" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="44" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="containsText" dxfId="79" priority="37" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="38" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="39" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="40" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="75" priority="33" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="34" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="35" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="36" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="containsText" dxfId="71" priority="29" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="30" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="31" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="32" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="67" priority="25" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="26" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="27" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="28" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="22" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="23" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="24" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="59" priority="17" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="18" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="19" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="20" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="55" priority="13" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="14" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="16" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="12" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="8" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:J23">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J23" xr:uid="{1A4D83BC-9772-472D-B7C8-7EF18192D20A}">
+      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43425953-96A5-43C6-A4EB-3A1D904797AC}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" activeCellId="1" sqref="G19 G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="47.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="14" customFormat="1" ht="108" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="198" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="252" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="288" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="342" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="378" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="14" customFormat="1" ht="216" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" s="14" customFormat="1" ht="216" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="252" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="252" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="252" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="324" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" s="14" customFormat="1" ht="270" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="234" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="252" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="198" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" s="14" customFormat="1" ht="198" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J20">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",J18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J10:J20" xr:uid="{0A83F29A-F8B5-48A0-81DF-827456F041DB}">
+      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>